--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value605.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value605.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7554697895068583</v>
+        <v>1.072543621063232</v>
       </c>
       <c r="B1">
-        <v>0.7113562233948221</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>0.6973484992189284</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8607650330483398</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.273469572696872</v>
+        <v>1.157065629959106</v>
       </c>
     </row>
   </sheetData>
